--- a/data/trans_orig/P13_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0A31F5F-19B5-40B8-AAD0-73688B91DEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{550602CF-A614-4C14-B867-FDDAA0CE5D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AEA5667B-9421-412F-9AE2-DDF651EE3C5A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8738A97-1CD8-4E54-B242-714905307FF0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="275">
   <si>
     <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>5,34%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
   </si>
   <si>
     <t>6,35%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>94,66%</t>
   </si>
   <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>92,86%</t>
   </si>
   <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>93,65%</t>
   </si>
   <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>96,75%</t>
   </si>
   <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,7 +197,7 @@
     <t>1,94%</t>
   </si>
   <si>
-    <t>0,99%</t>
+    <t>0,96%</t>
   </si>
   <si>
     <t>3,62%</t>
@@ -206,19 +206,19 @@
     <t>3,86%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>98,06%</t>
@@ -227,673 +227,643 @@
     <t>96,38%</t>
   </si>
   <si>
-    <t>99,01%</t>
+    <t>99,04%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>2,59%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2015 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
   </si>
   <si>
     <t>96,11%</t>
   </si>
   <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>6,33%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
   </si>
   <si>
     <t>93,67%</t>
   </si>
   <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2015 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
     <t>93,13%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1ABBA8-F61F-4F00-AE56-65DF4E9E94CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C19E4C-FAAD-4859-8987-08861F6D7472}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1972,7 +1942,7 @@
         <v>6255</v>
       </c>
       <c r="N14" s="7">
-        <v>6387436</v>
+        <v>6387437</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2023,7 +1993,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2056,7 +2026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43CA8BE-4890-4734-8E58-5E670A2BA71D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DFDBC8-62AC-4F9C-89AF-09E249A45770}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2338,10 +2308,10 @@
         <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H7" s="7">
         <v>102</v>
@@ -2350,13 +2320,13 @@
         <v>110835</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M7" s="7">
         <v>173</v>
@@ -2365,13 +2335,13 @@
         <v>186550</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,10 +2359,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>1531</v>
@@ -2401,13 +2371,13 @@
         <v>1645013</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>3314</v>
@@ -2416,13 +2386,13 @@
         <v>3531278</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,10 +2463,10 @@
         <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -2505,13 +2475,13 @@
         <v>16155</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -2520,13 +2490,13 @@
         <v>29376</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,10 +2514,10 @@
         <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H11" s="7">
         <v>398</v>
@@ -2556,13 +2526,13 @@
         <v>442476</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>824</v>
@@ -2571,13 +2541,13 @@
         <v>910436</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2615,13 @@
         <v>158941</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H13" s="7">
         <v>303</v>
@@ -2660,13 +2630,13 @@
         <v>328450</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>449</v>
@@ -2675,13 +2645,13 @@
         <v>487391</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2666,13 @@
         <v>3257898</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>2988</v>
@@ -2711,13 +2681,13 @@
         <v>3222728</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>6041</v>
@@ -2726,13 +2696,13 @@
         <v>6480626</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,7 +2777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F63F30-C475-4B0E-99FF-251A3547C84D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA33BD3-26DB-4169-A8AE-5D5A4DEBD26B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2824,7 +2794,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2931,13 +2901,13 @@
         <v>45245</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7">
         <v>91</v>
@@ -2946,13 +2916,13 @@
         <v>105845</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M4" s="7">
         <v>139</v>
@@ -2961,13 +2931,13 @@
         <v>151090</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +2952,13 @@
         <v>709102</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>799</v>
@@ -2997,13 +2967,13 @@
         <v>886699</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M5" s="7">
         <v>1513</v>
@@ -3012,13 +2982,13 @@
         <v>1595801</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3056,13 @@
         <v>59167</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>64</v>
@@ -3101,13 +3071,13 @@
         <v>69972</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>116</v>
@@ -3116,13 +3086,13 @@
         <v>129139</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3107,13 @@
         <v>2016245</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>1843</v>
@@ -3152,13 +3122,13 @@
         <v>1917274</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>3742</v>
@@ -3167,13 +3137,13 @@
         <v>3933519</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3211,13 @@
         <v>13169</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -3256,13 +3226,13 @@
         <v>18833</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3271,13 +3241,13 @@
         <v>32002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3262,13 @@
         <v>533717</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
@@ -3307,13 +3277,13 @@
         <v>528439</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>997</v>
@@ -3322,13 +3292,13 @@
         <v>1062157</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3366,13 @@
         <v>117581</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>171</v>
@@ -3411,13 +3381,13 @@
         <v>194650</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>283</v>
@@ -3426,13 +3396,13 @@
         <v>312231</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3417,13 @@
         <v>3259064</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>3150</v>
@@ -3462,28 +3432,28 @@
         <v>3332412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>6252</v>
       </c>
       <c r="N14" s="7">
-        <v>6591477</v>
+        <v>6591476</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,7 +3495,7 @@
         <v>6535</v>
       </c>
       <c r="N15" s="7">
-        <v>6903708</v>
+        <v>6903707</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3558,7 +3528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9510F3-2B9B-413C-9755-0371B1842196}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D1CA82-D0C8-4A3D-8FD3-50A377B3B542}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3575,7 +3545,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3682,13 +3652,13 @@
         <v>67658</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="H4" s="7">
         <v>266</v>
@@ -3697,13 +3667,13 @@
         <v>149288</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="M4" s="7">
         <v>356</v>
@@ -3712,13 +3682,13 @@
         <v>216946</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3703,13 @@
         <v>473048</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="H5" s="7">
         <v>1154</v>
@@ -3748,13 +3718,13 @@
         <v>683350</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="M5" s="7">
         <v>1754</v>
@@ -3763,13 +3733,13 @@
         <v>1156398</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3807,13 @@
         <v>84381</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="H7" s="7">
         <v>160</v>
@@ -3852,13 +3822,13 @@
         <v>105221</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>249</v>
@@ -3867,13 +3837,13 @@
         <v>189602</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3858,13 @@
         <v>2075527</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="H8" s="7">
         <v>2759</v>
@@ -3903,28 +3873,28 @@
         <v>2142647</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>63</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>4660</v>
       </c>
       <c r="N8" s="7">
-        <v>4218174</v>
+        <v>4218175</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,7 +3936,7 @@
         <v>4909</v>
       </c>
       <c r="N9" s="7">
-        <v>4407776</v>
+        <v>4407777</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3992,13 +3962,13 @@
         <v>26171</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -4007,13 +3977,13 @@
         <v>21030</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4022,13 +3992,13 @@
         <v>47201</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4013,13 @@
         <v>646868</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H11" s="7">
         <v>970</v>
@@ -4058,13 +4028,13 @@
         <v>692856</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M11" s="7">
         <v>1622</v>
@@ -4073,13 +4043,13 @@
         <v>1339725</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4117,13 @@
         <v>178210</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>460</v>
@@ -4162,13 +4132,13 @@
         <v>275539</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="M13" s="7">
         <v>668</v>
@@ -4177,13 +4147,13 @@
         <v>453749</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4168,13 @@
         <v>3195444</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>4883</v>
@@ -4213,13 +4183,13 @@
         <v>3518854</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
         <v>8036</v>
@@ -4228,13 +4198,13 @@
         <v>6714297</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P13_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{550602CF-A614-4C14-B867-FDDAA0CE5D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E308B35E-BB09-4C44-BC7E-A6368CC52750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8738A97-1CD8-4E54-B242-714905307FF0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{607EA18C-EA8F-4946-8ECF-956DDBAD6041}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
   <si>
     <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,594 +77,636 @@
     <t>5,34%</t>
   </si>
   <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2016 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2015 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
     <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
@@ -770,9 +812,6 @@
     <t>96,32%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
     <t>2,66%</t>
   </si>
   <si>
@@ -782,9 +821,6 @@
     <t>2,95%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
     <t>4,26%</t>
   </si>
   <si>
@@ -797,9 +833,6 @@
     <t>4,38%</t>
   </si>
   <si>
-    <t>96,11%</t>
-  </si>
-  <si>
     <t>94,23%</t>
   </si>
   <si>
@@ -810,9 +843,6 @@
   </si>
   <si>
     <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
   </si>
   <si>
     <t>96,6%</t>
@@ -1275,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C19E4C-FAAD-4859-8987-08861F6D7472}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CC5FE1-BB07-484E-9E5A-0158198AFCA8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1551,7 +1581,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>38560</v>
+        <v>38561</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1653,7 +1683,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1912,7 +1942,7 @@
         <v>3114</v>
       </c>
       <c r="D14" s="7">
-        <v>3172133</v>
+        <v>3172132</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1963,7 +1993,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2026,7 +2056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DFDBC8-62AC-4F9C-89AF-09E249A45770}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A492F727-2EE7-4637-83A4-3C35DF4DC8DE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2308,10 +2338,10 @@
         <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H7" s="7">
         <v>102</v>
@@ -2320,13 +2350,13 @@
         <v>110835</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M7" s="7">
         <v>173</v>
@@ -2335,13 +2365,13 @@
         <v>186550</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,10 +2389,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>1531</v>
@@ -2371,13 +2401,13 @@
         <v>1645013</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>3314</v>
@@ -2386,13 +2416,13 @@
         <v>3531278</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,10 +2493,10 @@
         <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -2475,13 +2505,13 @@
         <v>16155</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -2490,13 +2520,13 @@
         <v>29376</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,10 +2544,10 @@
         <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>398</v>
@@ -2526,13 +2556,13 @@
         <v>442476</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>824</v>
@@ -2541,13 +2571,13 @@
         <v>910436</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,13 +2645,13 @@
         <v>158941</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>303</v>
@@ -2630,13 +2660,13 @@
         <v>328450</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>449</v>
@@ -2645,13 +2675,13 @@
         <v>487391</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2696,13 @@
         <v>3257898</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>2988</v>
@@ -2681,13 +2711,13 @@
         <v>3222728</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>6041</v>
@@ -2696,13 +2726,13 @@
         <v>6480626</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,7 +2807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA33BD3-26DB-4169-A8AE-5D5A4DEBD26B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE5F976-1150-4158-AE62-9F7F2852D1B8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2794,7 +2824,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2901,13 +2931,13 @@
         <v>45245</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>91</v>
@@ -2916,13 +2946,13 @@
         <v>105845</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>139</v>
@@ -2931,13 +2961,13 @@
         <v>151090</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2982,13 @@
         <v>709102</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>799</v>
@@ -2967,13 +2997,13 @@
         <v>886699</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1513</v>
@@ -2982,13 +3012,13 @@
         <v>1595801</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3086,13 @@
         <v>59167</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>64</v>
@@ -3071,13 +3101,13 @@
         <v>69972</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="M7" s="7">
         <v>116</v>
@@ -3086,13 +3116,13 @@
         <v>129139</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3137,13 @@
         <v>2016245</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>1843</v>
@@ -3122,10 +3152,10 @@
         <v>1917274</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>47</v>
@@ -3137,13 +3167,13 @@
         <v>3933519</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3241,13 @@
         <v>13169</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -3226,13 +3256,13 @@
         <v>18833</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3241,13 +3271,13 @@
         <v>32002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3292,13 @@
         <v>533717</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
@@ -3277,13 +3307,13 @@
         <v>528439</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>997</v>
@@ -3292,13 +3322,13 @@
         <v>1062157</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3396,13 @@
         <v>117581</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H13" s="7">
         <v>171</v>
@@ -3381,13 +3411,13 @@
         <v>194650</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>283</v>
@@ -3396,13 +3426,13 @@
         <v>312231</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3447,13 @@
         <v>3259064</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>3150</v>
@@ -3432,13 +3462,13 @@
         <v>3332412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>6252</v>
@@ -3447,13 +3477,13 @@
         <v>6591476</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,7 +3558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D1CA82-D0C8-4A3D-8FD3-50A377B3B542}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF16B27-9AE0-4992-BEEF-EEB4D846D346}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3545,7 +3575,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3652,13 +3682,13 @@
         <v>67658</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>266</v>
@@ -3667,13 +3697,13 @@
         <v>149288</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>356</v>
@@ -3682,13 +3712,13 @@
         <v>216946</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3733,13 @@
         <v>473048</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>1154</v>
@@ -3718,13 +3748,13 @@
         <v>683350</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>1754</v>
@@ -3733,13 +3763,13 @@
         <v>1156398</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3837,13 @@
         <v>84381</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
         <v>160</v>
@@ -3822,13 +3852,13 @@
         <v>105221</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>249</v>
@@ -3837,13 +3867,13 @@
         <v>189602</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3888,13 @@
         <v>2075527</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>2759</v>
@@ -3873,13 +3903,13 @@
         <v>2142647</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>4660</v>
@@ -3888,13 +3918,13 @@
         <v>4218175</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3992,13 @@
         <v>26171</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>71</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -3977,13 +4007,13 @@
         <v>21030</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -3992,13 +4022,13 @@
         <v>47201</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +4043,13 @@
         <v>646868</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="H11" s="7">
         <v>970</v>
@@ -4028,13 +4058,13 @@
         <v>692856</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>1622</v>
@@ -4043,13 +4073,13 @@
         <v>1339725</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4147,13 @@
         <v>178210</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>460</v>
@@ -4132,13 +4162,13 @@
         <v>275539</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>668</v>
@@ -4147,13 +4177,13 @@
         <v>453749</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4198,13 @@
         <v>3195444</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>4883</v>
@@ -4183,13 +4213,13 @@
         <v>3518854</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>8036</v>
@@ -4198,13 +4228,13 @@
         <v>6714297</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
